--- a/Data/Monopolization by the branches of national economy.xlsx
+++ b/Data/Monopolization by the branches of national economy.xlsx
@@ -1,17 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aleksandr/Documents/GIT/Privatization-in-Ukraine.-1992-2015/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="375" windowWidth="15015" windowHeight="5100"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="20080" windowHeight="9340"/>
   </bookViews>
   <sheets>
     <sheet name="monoply by branch of nationecon" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -66,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,25 +119,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -162,14 +181,14 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -196,14 +215,15 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -230,9 +250,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -405,31 +426,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A25"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -440,7 +461,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -451,7 +472,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -462,7 +483,7 @@
         <v>72.7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -473,7 +494,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -484,7 +505,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -495,7 +516,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>1</v>
       </c>
@@ -506,7 +527,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +538,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -528,7 +549,7 @@
         <v>55.2</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -539,7 +560,7 @@
         <v>33.9</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>1</v>
       </c>
@@ -550,7 +571,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +582,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -572,7 +593,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -583,7 +604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>1</v>
       </c>
@@ -594,7 +615,7 @@
         <v>51.8</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -616,7 +637,7 @@
         <v>49.3</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -627,7 +648,7 @@
         <v>18.100000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -638,7 +659,7 @@
         <v>22.6</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -649,7 +670,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -660,7 +681,7 @@
         <v>66.5</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -671,7 +692,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -682,7 +703,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -699,21 +720,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -724,12 +745,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
